--- a/biology/Zoologie/Doleschallia_tongana/Doleschallia_tongana.xlsx
+++ b/biology/Zoologie/Doleschallia_tongana/Doleschallia_tongana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Doleschallia tongana est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Nymphalinae et du genre Doleschallia.
 </t>
@@ -511,16 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom Doleschallia tongana a été donné par Hopkins (en) en 1927[1].
-Doleschallia tongana considérée comme une sous-espèce de Doleschallia bisaltide a été élevée au rang d'espèce par Parsons en 1999[2].
-Noms vernaculaires
-Doleschallia tongana se nomme en anglais.
-Sous-espèces
-Doleschallia tongana tongana
-Doleschallia tongana denisi en Nouvelle-Calédonie
-Doleschallia tongana vomana Fruhstorfer; aux Fidji[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Doleschallia tongana a été donné par Hopkins (en) en 1927.
+Doleschallia tongana considérée comme une sous-espèce de Doleschallia bisaltide a été élevée au rang d'espèce par Parsons en 1999.
+</t>
         </is>
       </c>
     </row>
@@ -545,10 +554,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Doleschallia tongana se nomme en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Doleschallia_tongana</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doleschallia_tongana</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Doleschallia tongana tongana
+Doleschallia tongana denisi en Nouvelle-Calédonie
+Doleschallia tongana vomana Fruhstorfer; aux Fidji.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Doleschallia_tongana</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doleschallia_tongana</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un grand papillon, qui, ailes fermées mime une feuille avec ses ailes antérieures au bord concave et son revers couleur marron comme une feuille d'automne. 
 Le dessus est marron doré avec l'apex des antérieures marron foncé. 
@@ -556,70 +642,179 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Doleschallia_tongana</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Doleschallia_tongana</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Doleschallia_tongana</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doleschallia_tongana</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a récemment apparu dans l'ile Tutuila, il semble par migration colonisation[2].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Pseuderanthemum dont Pseuderanthemum carruthersi, Pseuderanthemum laxifolium, des Graptophilum dont Graptophilum pictum, Graptophilum insularum, des Artocarpus, Artocarpus altilis, Artocarpus integra et  des Erythrina[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a récemment apparu dans l'ile Tutuila, il semble par migration colonisation.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Doleschallia_tongana</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Doleschallia_tongana</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Doleschallia_tongana</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doleschallia_tongana</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Pseuderanthemum dont Pseuderanthemum carruthersi, Pseuderanthemum laxifolium, des Graptophilum dont Graptophilum pictum, Graptophilum insularum, des Artocarpus, Artocarpus altilis, Artocarpus integra et  des Erythrina.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Doleschallia_tongana</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doleschallia_tongana</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans en Polynésie et Mélanésie aux iles Fidji, aux Samoa dans l'ile Tutuila et en Nouvelle-Calédonie[1],[3],[4]. 
-Biotope
-Il réside en forêt, forêt primaire en Nouvelle-Calédonie, forêt secondaire en Nouvelle-Guinée[2].
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans en Polynésie et Mélanésie aux iles Fidji, aux Samoa dans l'ile Tutuila et en Nouvelle-Calédonie. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Doleschallia_tongana</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doleschallia_tongana</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en forêt, forêt primaire en Nouvelle-Calédonie, forêt secondaire en Nouvelle-Guinée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Doleschallia_tongana</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doleschallia_tongana</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
